--- a/TI994a/VDP memmap.xlsx
+++ b/TI994a/VDP memmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Git\ludo\TI994a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD47A3-EA6F-43F3-898F-96814B2CF0B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB43D67F-5D9A-4ABB-9829-6A0BCDB9F073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{12F4EB3B-4CD8-4E5D-9C5C-4CCBEFB9201B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>gImage</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>1A00</t>
+  </si>
+  <si>
+    <t>Used</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +440,7 @@
     <col min="6" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -445,7 +448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -464,8 +467,11 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -473,15 +479,15 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>DEC2HEX(G3,4)</f>
+        <f t="shared" ref="C3:D7" si="0">DEC2HEX(G3,4)</f>
         <v>0300</v>
       </c>
       <c r="D3" t="str">
-        <f>DEC2HEX(H3,4)</f>
+        <f t="shared" si="0"/>
         <v>0300</v>
       </c>
       <c r="F3" s="1">
-        <f>HEX2DEC(B3)</f>
+        <f t="shared" ref="F3:F8" si="1">HEX2DEC(B3)</f>
         <v>0</v>
       </c>
       <c r="G3" s="1">
@@ -491,8 +497,14 @@
       <c r="H3" s="1">
         <v>768</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>576</v>
+      </c>
+      <c r="K3" s="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -500,15 +512,15 @@
         <v>380</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>DEC2HEX(G4,4)</f>
+        <f t="shared" si="0"/>
         <v>03A0</v>
       </c>
       <c r="D4" t="str">
-        <f>DEC2HEX(H4,4)</f>
+        <f t="shared" si="0"/>
         <v>0020</v>
       </c>
       <c r="F4" s="1">
-        <f>HEX2DEC(B4)</f>
+        <f t="shared" si="1"/>
         <v>896</v>
       </c>
       <c r="G4" s="1">
@@ -518,8 +530,11 @@
       <c r="H4" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -527,15 +542,15 @@
         <v>800</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>DEC2HEX(G5,4)</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="D5" t="str">
-        <f>DEC2HEX(H5,4)</f>
+        <f t="shared" si="0"/>
         <v>0800</v>
       </c>
       <c r="F5" s="1">
-        <f>HEX2DEC(B5)</f>
+        <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="G5" s="1">
@@ -545,8 +560,11 @@
       <c r="H5" s="1">
         <v>2048</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -554,15 +572,15 @@
         <v>1000</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>DEC2HEX(G6,4)</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="D6" t="str">
-        <f>DEC2HEX(H6,4)</f>
+        <f t="shared" si="0"/>
         <v>0800</v>
       </c>
       <c r="F6" s="1">
-        <f>HEX2DEC(B6)</f>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="G6" s="1">
@@ -573,7 +591,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -581,15 +599,15 @@
         <v>1800</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>DEC2HEX(G7,4)</f>
+        <f t="shared" si="0"/>
         <v>1A00</v>
       </c>
       <c r="D7" t="str">
-        <f>DEC2HEX(H7,4)</f>
+        <f t="shared" si="0"/>
         <v>0200</v>
       </c>
       <c r="F7" s="1">
-        <f>HEX2DEC(B7)</f>
+        <f t="shared" si="1"/>
         <v>6144</v>
       </c>
       <c r="G7" s="1">
@@ -600,7 +618,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -615,7 +633,7 @@
         <v>2600</v>
       </c>
       <c r="F8" s="1">
-        <f>HEX2DEC(B8)</f>
+        <f t="shared" si="1"/>
         <v>6656</v>
       </c>
       <c r="G8" s="1">
